--- a/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
+++ b/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
@@ -646,19 +646,19 @@
         <v>0.4027397260273973</v>
       </c>
       <c r="D6" t="n">
-        <v>115094.6184930315</v>
+        <v>115081.2387247636</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01131461168908758</v>
+        <v>-0.01261852463264864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2045939589546089</v>
+        <v>0.2106479378526508</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5604727309264568</v>
+        <v>-0.7087787648184563</v>
       </c>
       <c r="H6" t="n">
-        <v>5.218431885528368</v>
+        <v>5.923492048363634</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4794520547945205</v>
       </c>
       <c r="D7" t="n">
-        <v>115744.2328964068</v>
+        <v>115729.4014244649</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01428943651869636</v>
+        <v>-0.01549382194285488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2051886454571602</v>
+        <v>0.210189590555609</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4031830220238187</v>
+        <v>-0.5168589211625243</v>
       </c>
       <c r="H7" t="n">
-        <v>4.761088007090696</v>
+        <v>5.223422583104654</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.7287671232876712</v>
       </c>
       <c r="D8" t="n">
-        <v>115896.2040295099</v>
+        <v>115902.4441511091</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.032632487527276</v>
+        <v>-0.03242949234361994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2093133162937546</v>
+        <v>0.2085967379298454</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.367002483580489</v>
+        <v>-1.348204895146933</v>
       </c>
       <c r="H8" t="n">
-        <v>9.01776789703051</v>
+        <v>8.870920615642103</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.8054794520547945</v>
       </c>
       <c r="D9" t="n">
-        <v>117591.1708460943</v>
+        <v>117402.6028498795</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05756627903728836</v>
+        <v>-0.0636740399468614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3136165992303823</v>
+        <v>0.3356250937238441</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.583661129879171</v>
+        <v>-1.827256894593787</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505436324235388</v>
+        <v>10.98182625486903</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.054794520547945</v>
       </c>
       <c r="D10" t="n">
-        <v>118988.9405505411</v>
+        <v>118988.3896664457</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09833901090262025</v>
+        <v>-0.09788690023333591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4186621339055681</v>
+        <v>0.4150687660883884</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.930336354359066</v>
+        <v>-1.879437335611029</v>
       </c>
       <c r="H10" t="n">
-        <v>10.06319598730032</v>
+        <v>9.608403840296544</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -816,19 +816,19 @@
         <v>1.301369863013699</v>
       </c>
       <c r="D11" t="n">
-        <v>120893.2601175081</v>
+        <v>120880.7258083007</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1603343416758367</v>
+        <v>-0.1667754622575358</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6466744142559917</v>
+        <v>0.6951836192414919</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.221641284329906</v>
+        <v>-2.471494357357156</v>
       </c>
       <c r="H11" t="n">
-        <v>9.531777449110113</v>
+        <v>11.58301120960439</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -968,19 +968,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D15" t="n">
-        <v>111922.4151948104</v>
+        <v>111922.032564998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03155389514894694</v>
+        <v>0.03152131171749281</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1428362445838861</v>
+        <v>0.1428945784418704</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7838226599377212</v>
+        <v>-0.7851727356124144</v>
       </c>
       <c r="H15" t="n">
-        <v>6.07017067294946</v>
+        <v>6.075221095169978</v>
       </c>
       <c r="I15" t="n">
         <v>0.1225871604057971</v>
@@ -1052,19 +1052,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>111872.231584931</v>
+        <v>111895.3534178812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01892712527436574</v>
+        <v>0.02121193946449751</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1702764310070614</v>
+        <v>0.1562058505465646</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.604158327874284</v>
+        <v>-0.7395612067214531</v>
       </c>
       <c r="H17" t="n">
-        <v>15.01642476338653</v>
+        <v>5.425419922712988</v>
       </c>
       <c r="I17" t="n">
         <v>0.2516799863301211</v>

--- a/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
+++ b/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
@@ -906,10 +906,18 @@
       <c r="H13" t="n">
         <v>7.011937907066979</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.3779298801345128</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.08732206993011483</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.3326748274291247</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.552525783804963</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">

--- a/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
+++ b/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>6.814174400985319</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.4314586288976201</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1272660847678533</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.4544100614065931</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.432481278254157</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1116,10 +1124,18 @@
       <c r="H18" t="n">
         <v>7.251224732472367</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.502276831272031</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1080822147826564</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.4228436700157019</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.165283755576974</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
+++ b/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
@@ -1166,10 +1166,18 @@
       <c r="H19" t="n">
         <v>5.571798574880623</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.4643152847966753</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2166321763746371</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.09876596577347316</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.670391752303761</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1200,10 +1208,18 @@
       <c r="H20" t="n">
         <v>5.371320605976026</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.7433026278503435</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.490140279905831</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4156417725326108</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.21484215664195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
+++ b/data_processed/20250905/BTCUSDQMOMENT_20250905.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.43423696254672</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.4269757926895136</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5451654426702852</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5531585209632127</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.81890317602702</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
